--- a/p_MAS 정보.xlsx
+++ b/p_MAS 정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f05737ff364af50b/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity_Project\Unity_MAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{3929F7C2-125E-4DE6-B9A8-B0D8D92D77F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A64BCA5-E26A-4A10-93CC-52FB52ED3B87}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4329256-47A2-486E-A611-B38C7791D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F5644341-F2A3-4701-B300-7F05DB70AE36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F5644341-F2A3-4701-B300-7F05DB70AE36}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,31 @@
   </si>
   <si>
     <t>자폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력 -2, 공격력 +2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨감
+화염구 -8, 얼음창 -6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IL_cool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IL_dam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장갑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,13 +754,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3B06E6-38BE-44C6-A0D5-E72BDA4445DE}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -744,14 +772,12 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
@@ -772,18 +798,12 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
       <c r="J3" s="1">
         <v>3</v>
       </c>
-      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -792,16 +812,9 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -810,14 +823,6 @@
       <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -826,14 +831,6 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -842,102 +839,77 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
       <c r="K7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -949,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C279C231-0134-4457-8E36-7C18D943BAC0}">
   <dimension ref="B2:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -1161,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CC6E64-EA68-4B08-8FB3-5C2594FA35D4}">
-  <dimension ref="B1:C32"/>
+  <dimension ref="B1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1301,7 +1273,7 @@
     <row r="25" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>49</v>
@@ -1320,20 +1292,44 @@
     <row r="29" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" s="2">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C32" s="7"/>
     </row>
+    <row r="33" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C2:C4"/>
